--- a/data/trans_camb/P19C02-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C02-Habitat-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>7.223477388543315</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>23.97721419070803</v>
+        <v>23.97721419070801</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.699545847450426</v>
+        <v>-4.687730552134489</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4394891694808922</v>
+        <v>0.976220102732531</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15.30182983607654</v>
+        <v>16.17065785083856</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.649749234350003</v>
+        <v>0.4953542772154395</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.174693565453568</v>
+        <v>2.669206701238489</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>21.61305550733107</v>
+        <v>21.81610981370904</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.1506661557267975</v>
+        <v>-0.245334016723216</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.262506250357494</v>
+        <v>3.612908686276351</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>20.41993845430829</v>
+        <v>20.56938939334674</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.603029328483689</v>
+        <v>5.68722691121149</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.51784174606097</v>
+        <v>11.71721856121835</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>26.68728193519725</v>
+        <v>26.8349368293838</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.67522609215186</v>
+        <v>11.39200760245624</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>13.62135671352378</v>
+        <v>13.34021280320136</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>31.37036411173632</v>
+        <v>31.20649026403563</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.150754745494145</v>
+        <v>7.108312096099592</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>10.93083417587436</v>
+        <v>10.8417553532566</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>27.84815887103669</v>
+        <v>27.58038304636515</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.3276742785197002</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1.087664006993861</v>
+        <v>1.08766400699386</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1883449370462313</v>
+        <v>-0.1897801356941876</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.0129148775621491</v>
+        <v>0.04294148516390021</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.6362187890995168</v>
+        <v>0.6604427676963878</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.06183063930312702</v>
+        <v>0.01065241186726596</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1246428590288396</v>
+        <v>0.1062163346723563</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8425381792344113</v>
+        <v>0.8621966788175484</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.00611380929617624</v>
+        <v>-0.006561616608078663</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1279251208054888</v>
+        <v>0.151391083637766</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.8492475719177669</v>
+        <v>0.8573281214190382</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3141006557238259</v>
+        <v>0.3054811863797505</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6008099459364727</v>
+        <v>0.6271786642380855</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.444169597690159</v>
+        <v>1.477831447447497</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5903116459324113</v>
+        <v>0.5508557472832988</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7027583577749811</v>
+        <v>0.6849821888068366</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.587479690572204</v>
+        <v>1.617608171600929</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3561214711783421</v>
+        <v>0.359122032833678</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5314300314514727</v>
+        <v>0.5418182623100526</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.387795334712018</v>
+        <v>1.386066751823833</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>9.627343672902644</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>23.57423467393548</v>
+        <v>23.57423467393545</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.5494685472393568</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.41828272277129</v>
+        <v>-1.472300261389846</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.599210835303014</v>
+        <v>5.217021346943543</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18.82241302019625</v>
+        <v>19.19868859266595</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.565221656248216</v>
+        <v>-6.025089790352562</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>4.922206922214308</v>
+        <v>4.842214659520217</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>19.51418426729797</v>
+        <v>18.82602867693056</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.723361437148128</v>
+        <v>-2.707222644324466</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>6.45108418761991</v>
+        <v>6.623499941009288</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>20.57754723047176</v>
+        <v>20.50725900790812</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.621321964826354</v>
+        <v>7.920382170249502</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.61594923256427</v>
+        <v>15.00028531914625</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>29.40615785711301</v>
+        <v>29.09669246613977</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.026420078659737</v>
+        <v>2.556645552355339</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>14.30330952745005</v>
+        <v>14.34539814237224</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>27.88982988624207</v>
+        <v>27.3477798230099</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.847908842638904</v>
+        <v>4.023274733438948</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>13.31136752980125</v>
+        <v>13.40336976517603</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>27.22861371150277</v>
+        <v>27.21342723627555</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.3381413269338154</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8279981752942157</v>
+        <v>0.8279981752942149</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.0198120691376945</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.07923343778270221</v>
+        <v>-0.05220185211658014</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1561905475524816</v>
+        <v>0.1735367825437126</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.6124779860288402</v>
+        <v>0.6465036040511498</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2123485626874543</v>
+        <v>-0.1982735989924435</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1596313523226969</v>
+        <v>0.1507812250765136</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6300544698001683</v>
+        <v>0.6102582003712208</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.0908375615976437</v>
+        <v>-0.09124850325285989</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2154838910097041</v>
+        <v>0.2217703647301611</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.7017226999577567</v>
+        <v>0.6934681061361327</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.311724855469327</v>
+        <v>0.3289019722535667</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6014266580248393</v>
+        <v>0.5975047620015405</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.209070858151332</v>
+        <v>1.202756193715157</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.07916508453058355</v>
+        <v>0.09908800399526957</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5518525273965464</v>
+        <v>0.5446458616289066</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.069620784106611</v>
+        <v>1.060417724524062</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1493389027911099</v>
+        <v>0.1514313852492399</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5198895244480151</v>
+        <v>0.5201094919280855</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.048716011313196</v>
+        <v>1.05410051698259</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>5.058563948699674</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>11.22883770361858</v>
+        <v>11.22883770361857</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.805217117645744</v>
+        <v>-6.648984099384157</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.008910891828842</v>
+        <v>-2.179425179490123</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.194002004221538</v>
+        <v>7.82770310785942</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.801587306801937</v>
+        <v>-4.934663629016992</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.101055448459952</v>
+        <v>1.485091005146537</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.754851903764447</v>
+        <v>3.880186388962264</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-4.323430456061899</v>
+        <v>-4.236227930764946</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.195804103876128</v>
+        <v>1.398617200321831</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>7.310160024005293</v>
+        <v>7.362038945575121</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.666504973524503</v>
+        <v>4.159352529551982</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.648447583379378</v>
+        <v>9.379410040670836</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18.78134264241024</v>
+        <v>19.12330881335265</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.800687065247144</v>
+        <v>5.707774048371716</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>12.26497535029816</v>
+        <v>12.66259996975978</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>13.81506182549646</v>
+        <v>13.9821111758115</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.536594939044623</v>
+        <v>3.525127392354412</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>9.062965802533375</v>
+        <v>9.397868153590569</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>14.79330441895582</v>
+        <v>15.01676634638893</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.1586621684122289</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.3521931830600031</v>
+        <v>0.3521931830600028</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2109829979211005</v>
+        <v>-0.2074151362122541</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.09090183803446333</v>
+        <v>-0.07139554854494863</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2179179545391715</v>
+        <v>0.2392411473636285</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1323095727698401</v>
+        <v>-0.1390357329695198</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.02795310274042013</v>
+        <v>0.04355979172558107</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1029570564809445</v>
+        <v>0.1074533820897762</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1300851338178266</v>
+        <v>-0.1273431564110892</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.03195220595050522</v>
+        <v>0.04345963183749897</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2156739937135782</v>
+        <v>0.2174988310159218</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1726774286446113</v>
+        <v>0.1444974584672119</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3152941067456077</v>
+        <v>0.3440958578216705</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.6782174297266835</v>
+        <v>0.708807988797885</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1821318235471039</v>
+        <v>0.1850591221183089</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3925545932043211</v>
+        <v>0.4119389991287011</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4540782103295476</v>
+        <v>0.448976045830756</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1162693411748782</v>
+        <v>0.1173498738065513</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2987835239481719</v>
+        <v>0.319711169977068</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5040980452500337</v>
+        <v>0.5017236721854604</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>4.115381027125625</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14.97869746475976</v>
+        <v>14.97869746475977</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>4.565120217549007</v>
@@ -1297,7 +1297,7 @@
         <v>7.537832451333526</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>18.52409789117526</v>
+        <v>18.52409789117525</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.273138179233015</v>
@@ -1306,7 +1306,7 @@
         <v>5.941506788346707</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>16.8702363996403</v>
+        <v>16.87023639964029</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.021518014767863</v>
+        <v>-3.10052448343711</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.090775676617222</v>
+        <v>-0.5761260442554319</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10.05543505444248</v>
+        <v>10.34854234062874</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05697883041139563</v>
+        <v>0.2813814228592842</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.527204964464552</v>
+        <v>3.034124278761784</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>13.48108214162563</v>
+        <v>14.30234084589943</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.1781098976220178</v>
+        <v>0.2782296781824198</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.560538411459803</v>
+        <v>2.688100013003404</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>13.76820877701437</v>
+        <v>13.84735520821283</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.584648802690005</v>
+        <v>6.584108826534611</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.041411517948424</v>
+        <v>8.890451016032774</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>19.83558392452856</v>
+        <v>19.97667020211438</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.471063873720858</v>
+        <v>8.845734925983258</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>11.77879799615405</v>
+        <v>12.42918935510893</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>22.48666378541681</v>
+        <v>22.69605292657231</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>6.305383781240296</v>
+        <v>6.742272972303623</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>9.099115740416165</v>
+        <v>9.218677799356669</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>19.88799141038117</v>
+        <v>19.91804423284563</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1214864123116877</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.4421724754285523</v>
+        <v>0.4421724754285526</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1472920060733179</v>
@@ -1402,7 +1402,7 @@
         <v>0.243205525877162</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5976735352118758</v>
+        <v>0.5976735352118754</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1012207252604698</v>
@@ -1411,7 +1411,7 @@
         <v>0.1837391498080242</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.5217065306076718</v>
+        <v>0.5217065306076716</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.08452633714899223</v>
+        <v>-0.08570400158034475</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.03052954233672612</v>
+        <v>-0.01691921245111267</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2820801623800364</v>
+        <v>0.2802218272479035</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.00427036962669067</v>
+        <v>0.00855883545525675</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.07552554671084424</v>
+        <v>0.08779109627164448</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4076269345704669</v>
+        <v>0.4258474508549058</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.004066889474349075</v>
+        <v>0.008137445390014092</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.0760842284724582</v>
+        <v>0.07848382461636198</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.4047227832032748</v>
+        <v>0.3983248871965011</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2103386877269756</v>
+        <v>0.2066068603903038</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2867159728483763</v>
+        <v>0.2749260734356925</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6441519965735495</v>
+        <v>0.6335408033261895</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2930572163311508</v>
+        <v>0.3089414933445246</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4051828242110909</v>
+        <v>0.4296784272082853</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7976264529149879</v>
+        <v>0.7950863845443528</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2055455924140174</v>
+        <v>0.2199631203181172</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3024619982033157</v>
+        <v>0.303931470231066</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6564105655435143</v>
+        <v>0.6522934155319097</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.486291825061228</v>
+        <v>-1.476686078347489</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.778923000227006</v>
+        <v>3.529342201715935</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>15.68669584614539</v>
+        <v>16.07307615454705</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.2520115992970791</v>
+        <v>-0.1468309821201025</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>5.664407021981723</v>
+        <v>5.176958863520902</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>17.27649243291746</v>
+        <v>17.28367544790551</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.1690254446853033</v>
+        <v>-0.1802328613729249</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>5.511404483680331</v>
+        <v>5.351660969426978</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>17.24605969839809</v>
+        <v>17.41527973344109</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.439589950549212</v>
+        <v>3.515618903159788</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>8.923463059683275</v>
+        <v>8.817808289181272</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>20.95077284746037</v>
+        <v>21.25661887566854</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.588139760298859</v>
+        <v>4.667952781248319</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>10.75525449256643</v>
+        <v>10.38123911956776</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>21.86629620282104</v>
+        <v>21.83651234343903</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.291958101401832</v>
+        <v>3.386249757938879</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>9.040739613053415</v>
+        <v>8.967030587964764</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>20.92873364844394</v>
+        <v>20.94065643348189</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.2177699410837339</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.6479475120432654</v>
+        <v>0.6479475120432652</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.07294072068451402</v>
@@ -1616,7 +1616,7 @@
         <v>0.2777081081345091</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.6713531970327298</v>
+        <v>0.6713531970327296</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.05560341065887644</v>
@@ -1625,7 +1625,7 @@
         <v>0.248903313010204</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.6598179277388446</v>
+        <v>0.6598179277388444</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.04907023945144963</v>
+        <v>-0.04971639823256911</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1241241250785922</v>
+        <v>0.1148553722799119</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.5272640982101771</v>
+        <v>0.5376926319802112</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.008033626445875446</v>
+        <v>-0.005499310140030152</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1860575892806607</v>
+        <v>0.1699153792678572</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5571389562227407</v>
+        <v>0.5728912625706246</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.005749015599717582</v>
+        <v>-0.006072782807646946</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1840853026940864</v>
+        <v>0.1780024134684781</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.5775004153825448</v>
+        <v>0.581525358839762</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1252910560918169</v>
+        <v>0.1281418857903524</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3252564529329789</v>
+        <v>0.3182201073715984</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.7751802661118652</v>
+        <v>0.7862566675695639</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1664540644334776</v>
+        <v>0.1678709843241079</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3810705885400841</v>
+        <v>0.3740432459955883</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.7866424987964648</v>
+        <v>0.7998651280780362</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1169310497151085</v>
+        <v>0.1211311441161289</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3207478341824329</v>
+        <v>0.3172211318018622</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.75060093300055</v>
+        <v>0.7565867391065166</v>
       </c>
     </row>
     <row r="34">
